--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konka\Documents\dev\ra\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FCD218-568A-485D-B433-9C2CFB704634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="408" yWindow="384" windowWidth="21264" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>N_bits</t>
   </si>
@@ -31,60 +48,687 @@
   <si>
     <t>E[N_ones]</t>
   </si>
+  <si>
+    <t>sqrt(N_strings)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of 1's</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17295888013998251"/>
+          <c:y val="0.16712962962962963"/>
+          <c:w val="0.55481889763779535"/>
+          <c:h val="0.53515529308836396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1's observed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$37:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F83-4784-B8D2-E08181A17396}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Expected number of 1's</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$37:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.20703125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.4140625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.828125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.65625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.3125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292.96875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>488.28125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>585.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>683.59375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>781.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F83-4784-B8D2-E08181A17396}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="532560512"/>
+        <c:axId val="532561496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="532560512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of experiments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532561496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="532561496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ones</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532560512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7416666666666667"/>
+          <c:y val="0.41018737241178188"/>
+          <c:w val="0.22222222222222221"/>
+          <c:h val="0.33286599591717703"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -101,6 +745,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>16 Bits</a:t>
             </a:r>
           </a:p>
@@ -108,15 +753,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Result</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -124,15 +778,131 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$4:$D$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$4:$D$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>500.00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1,000.00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1,500.00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2,000.00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2,500.00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3,000.00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3,500.00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4,000.00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4,500.00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5,000.00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5,500.00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6,000.00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6,500.00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7,000.00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8,000.00</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$4:$E$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE5A-437C-BD25-488502453753}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -140,6 +910,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N_ones</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -147,15 +923,131 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$4:$D$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$4:$D$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>500.00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1,000.00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1,500.00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2,000.00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2,500.00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3,000.00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3,500.00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4,000.00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4,500.00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5,000.00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5,500.00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6,000.00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6,500.00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7,000.00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8,000.00</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$4:$F$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$4:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE5A-437C-BD25-488502453753}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -163,6 +1055,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E[N_ones]</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -170,16 +1068,141 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$4:$D$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$4:$D$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>500.00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1,000.00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1,500.00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2,000.00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2,500.00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3,000.00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3,500.00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4,000.00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4,500.00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5,000.00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5,500.00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6,000.00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6,500.00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7,000.00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8,000.00</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$G$4:$G$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$G$4:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.62939453125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.2587890625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.88818359375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.517578125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.14697265625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.7763671875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.40576171875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.03515625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.66455078125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.2939453125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.92333984375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.552734375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.18212890625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.8115234375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.0703125</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE5A-437C-BD25-488502453753}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="603355972"/>
         <c:axId val="1480549888"/>
       </c:lineChart>
@@ -205,6 +1228,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Number of Strings in S_n</a:t>
                 </a:r>
               </a:p>
@@ -212,6 +1236,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -224,9 +1252,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1480549888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1480549888"/>
@@ -267,15 +1301,15 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -294,9 +1328,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="603355972"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -314,16 +1351,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -340,6 +1389,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>14 Bits</a:t>
             </a:r>
           </a:p>
@@ -347,31 +1397,113 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Result</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$D$26:$D$35</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$26:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9656-4E9E-A1B6-4360CDD8FD23}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -379,22 +1511,101 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N_ones</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$D$26:$D$35</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$26:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9656-4E9E-A1B6-4360CDD8FD23}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -402,23 +1613,111 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E[N_ones]</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$D$26:$D$35</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$26:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.103515625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.20703125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.310546875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.4140625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.517578125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.62109375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.724609375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.828125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.931640625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.03515625</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9656-4E9E-A1B6-4360CDD8FD23}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1812663098"/>
         <c:axId val="1765191963"/>
       </c:lineChart>
@@ -444,6 +1743,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Number of Strings in S_n</a:t>
                 </a:r>
               </a:p>
@@ -451,6 +1751,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -463,9 +1767,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1765191963"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1765191963"/>
@@ -506,15 +1816,15 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -533,9 +1843,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1812663098"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -553,20 +1866,608 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>689610</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3147FD88-2D01-4788-865A-5CFBB58E5EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -575,9 +2476,15 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10172700" cy="6286500"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -586,7 +2493,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -600,9 +2507,15 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10172700" cy="6286500"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -611,7 +2524,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -621,7 +2534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -811,20 +2724,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B3:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,323 +2761,386 @@
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="E4" s="2">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="F4" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G18" si="1">(0.5^B4)*D4*C4</f>
-        <v>7.629394531</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" ref="G4:G18" si="0">(0.5^B4)*D4*C4</f>
+        <v>7.62939453125</v>
+      </c>
+      <c r="H4">
+        <f>SQRT(D4)</f>
+        <v>22.360679774997898</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="F5" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>15.2587890625</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H18" si="1">SQRT(D5)</f>
+        <v>31.622776601683793</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="2">
+        <v>153</v>
+      </c>
+      <c r="F6" s="2">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>22.88818359375</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>15.25878906</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1500.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>153.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="G6" s="2">
+        <v>38.729833462074168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>149</v>
+      </c>
+      <c r="F7" s="2">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>30.517578125</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>22.88818359</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2000.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>149.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>35.0</v>
-      </c>
-      <c r="G7" s="2">
+        <v>44.721359549995796</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="2">
+        <v>143</v>
+      </c>
+      <c r="F8" s="2">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>38.14697265625</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>30.51757813</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2500.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>143.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>37.0</v>
-      </c>
-      <c r="G8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>139</v>
+      </c>
+      <c r="F9" s="2">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>45.7763671875</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>38.14697266</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>139.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>38.0</v>
-      </c>
-      <c r="G9" s="2">
+        <v>54.772255750516614</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="2">
+        <v>131</v>
+      </c>
+      <c r="F10" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>53.40576171875</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>45.77636719</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3500.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>131.0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>55.0</v>
-      </c>
-      <c r="G10" s="2">
+        <v>59.16079783099616</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>122</v>
+      </c>
+      <c r="F11" s="2">
+        <v>59</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>61.03515625</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>53.40576172</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4000.0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>122.0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>59.0</v>
-      </c>
-      <c r="G11" s="2">
+        <v>63.245553203367585</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="2">
+        <v>115</v>
+      </c>
+      <c r="F12" s="2">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>68.66455078125</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>61.03515625</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4500.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>115.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="G12" s="2">
+        <v>67.082039324993687</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>111</v>
+      </c>
+      <c r="F13" s="2">
+        <v>74</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>76.2939453125</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>68.66455078</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5000.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>111.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>74.0</v>
-      </c>
-      <c r="G13" s="2">
+        <v>70.710678118654755</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5500</v>
+      </c>
+      <c r="E14" s="2">
+        <v>108</v>
+      </c>
+      <c r="F14" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>83.92333984375</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>76.29394531</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5500.0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>108.0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>83.0</v>
-      </c>
-      <c r="G14" s="2">
+        <v>74.16198487095663</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>101</v>
+      </c>
+      <c r="F15" s="2">
+        <v>99</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>91.552734375</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>83.92333984</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>6000.0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>99.0</v>
-      </c>
-      <c r="G15" s="2">
+        <v>77.459666924148337</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6500</v>
+      </c>
+      <c r="E16" s="2">
+        <v>99</v>
+      </c>
+      <c r="F16" s="2">
+        <v>99</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>99.18212890625</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>91.55273438</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6500.0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>99.0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>99.0</v>
-      </c>
-      <c r="G16" s="2">
+        <v>80.622577482985491</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>94</v>
+      </c>
+      <c r="F17" s="2">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>106.8115234375</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>99.18212891</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>7000.0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>94.0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="G17" s="2">
+        <v>83.66600265340756</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2">
+        <v>123</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>122.0703125</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>106.8115234</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8000.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>84.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>122.0703125</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>89.442719099991592</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,112 +3160,112 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D20" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="E20" s="2">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="F20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ref="G20:G24" si="2">(0.5^B20)*D20*C20</f>
-        <v>1.907348633</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1.9073486328125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D21" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="3">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="F21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>3.814697266</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>3.814697265625</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D22" s="3">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="F22" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>5.722045898</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>5.7220458984375</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="3">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="E23" s="3">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="F23" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>7.629394531</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>7.62939453125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D24" s="3">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="E24" s="3">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="F24" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>11.4440918</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>11.444091796875</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,231 +3285,487 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" ref="G26:G35" si="3">(0.5^B26)*D26*C26</f>
+        <f t="shared" ref="G26:G47" si="3">(0.5^B26)*D26*C26</f>
         <v>6.103515625</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="3">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="3"/>
         <v>12.20703125</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D28" s="3">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="E28" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F28" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="3"/>
-        <v>18.31054688</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>18.310546875</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D29" s="3">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="E29" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F29" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="3"/>
         <v>24.4140625</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D30" s="3">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="E30" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="F30" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="3"/>
-        <v>30.51757813</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>30.517578125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D31" s="3">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="E31" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="F31" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D32" s="3">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="E32" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F32" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="3"/>
-        <v>42.72460938</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>42.724609375</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D33" s="3">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="E33" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="F33" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="3"/>
         <v>48.828125</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D34" s="3">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="E34" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="F34" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="3"/>
-        <v>54.93164063</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>54.931640625</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D35" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="2">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="F35" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="3"/>
         <v>61.03515625</v>
       </c>
     </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3">
+        <v>100</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E37" s="3">
+        <v>81</v>
+      </c>
+      <c r="F37" s="3">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="3"/>
+        <v>12.20703125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3">
+        <v>200</v>
+      </c>
+      <c r="D38" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E38" s="3">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3">
+        <v>28</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="3"/>
+        <v>24.4140625</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3">
+        <v>400</v>
+      </c>
+      <c r="D39" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E39" s="3">
+        <v>87</v>
+      </c>
+      <c r="F39" s="3">
+        <v>43</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="3"/>
+        <v>48.828125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>16</v>
+      </c>
+      <c r="C40" s="3">
+        <v>800</v>
+      </c>
+      <c r="D40" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E40" s="3">
+        <v>86</v>
+      </c>
+      <c r="F40" s="3">
+        <v>100</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="3"/>
+        <v>97.65625</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>85</v>
+      </c>
+      <c r="F41" s="3">
+        <v>177</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="3"/>
+        <v>195.3125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>85</v>
+      </c>
+      <c r="F42" s="3">
+        <v>292</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="3"/>
+        <v>292.96875</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>86</v>
+      </c>
+      <c r="F43" s="3">
+        <v>349</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="3"/>
+        <v>390.625</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>86</v>
+      </c>
+      <c r="F44" s="3">
+        <v>448</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="3"/>
+        <v>488.28125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>86</v>
+      </c>
+      <c r="F45" s="3">
+        <v>565</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="3"/>
+        <v>585.9375</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="D46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>85</v>
+      </c>
+      <c r="F46" s="3">
+        <v>630</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="3"/>
+        <v>683.59375</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6400</v>
+      </c>
+      <c r="D47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>85</v>
+      </c>
+      <c r="F47" s="3">
+        <v>725</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="3"/>
+        <v>781.25</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konka\Documents\dev\ra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FCD218-568A-485D-B433-9C2CFB704634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23AA445-1E23-4848-87CA-001903C5FA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="408" yWindow="384" windowWidth="21264" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,11 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +401,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -728,7 +728,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -900,144 +907,134 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE5A-437C-BD25-488502453753}"/>
+              <c16:uniqueId val="{00000000-6FE6-46B3-B8C8-F1C6BCE58707}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N_ones</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>sqrt</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:strLit>
+              <c:ptCount val="15"/>
+              <c:pt idx="0">
+                <c:v>500.00</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1,000.00</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1,500.00</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2,000.00</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2,500.00</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>3,000.00</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>3,500.00</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>4,000.00</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>4,500.00</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>5,000.00</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5,500.00</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>6,000.00</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>6,500.00</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>7,000.00</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>8,000.00</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>N_strings</c:v>
+              </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$4:$D$19</c15:sqref>
-                  </c15:fullRef>
+                  <c15:autoCat val="1"/>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$4:$D$18</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>500.00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1,000.00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1,500.00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2,000.00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2,500.00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3,000.00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3,500.00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4,000.00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4,500.00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5,000.00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5,500.00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6,000.00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6,500.00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7,000.00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8,000.00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$F$4:$F$19</c15:sqref>
+                    <c15:sqref>Sheet1!$H$4:$H$18</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$F$4:$F$18</c:f>
+              <c:f>Sheet1!$H$4:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>152.36067977499789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>161.6227766016838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>168.72983346207417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>174.72135954999578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>184.77225575051662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>189.16079783099616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>193.24555320336759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74</c:v>
+                  <c:v>197.08203932499367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83</c:v>
+                  <c:v>200.71067811865476</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>99</c:v>
+                  <c:v>204.16198487095664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99</c:v>
+                  <c:v>207.45966692414834</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>210.62257748298549</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>123</c:v>
+                  <c:v>216.60254037844385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,144 +1042,134 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE5A-437C-BD25-488502453753}"/>
+              <c16:uniqueId val="{00000003-6FE6-46B3-B8C8-F1C6BCE58707}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E[N_ones]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>LN</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:strLit>
+              <c:ptCount val="15"/>
+              <c:pt idx="0">
+                <c:v>500.00</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1,000.00</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1,500.00</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2,000.00</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2,500.00</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>3,000.00</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>3,500.00</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>4,000.00</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>4,500.00</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>5,000.00</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5,500.00</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>6,000.00</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>6,500.00</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>7,000.00</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>8,000.00</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>N_strings</c:v>
+              </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$4:$D$19</c15:sqref>
-                  </c15:fullRef>
+                  <c15:autoCat val="1"/>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$4:$D$18</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>500.00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1,000.00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1,500.00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2,000.00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2,500.00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3,000.00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3,500.00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4,000.00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4,500.00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5,000.00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5,500.00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6,000.00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6,500.00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7,000.00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8,000.00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$G$4:$G$19</c15:sqref>
+                    <c15:sqref>Sheet1!$I$4:$I$18</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$G$4:$G$18</c:f>
+              <c:f>Sheet1!$I$4:$I$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.62939453125</c:v>
+                  <c:v>99.433729574755063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.2587890625</c:v>
+                  <c:v>110.52408446371419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.88818359375</c:v>
+                  <c:v>117.01152619344482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.517578125</c:v>
+                  <c:v>121.61443935267332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.14697265625</c:v>
+                  <c:v>125.18473617370067</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.7763671875</c:v>
+                  <c:v>128.10188108240393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.40576171875</c:v>
+                  <c:v>130.56829195964008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.03515625</c:v>
+                  <c:v>132.70479424163244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.66455078125</c:v>
+                  <c:v>134.58932281213458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.2939453125</c:v>
+                  <c:v>136.27509106265981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.92333984375</c:v>
+                  <c:v>137.80005393952899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91.552734375</c:v>
+                  <c:v>139.19223597136306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99.18212890625</c:v>
+                  <c:v>140.47291929413964</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>106.8115234375</c:v>
+                  <c:v>141.6586468485992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.0703125</c:v>
+                  <c:v>143.79514913059157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1177,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EE5A-437C-BD25-488502453753}"/>
+              <c16:uniqueId val="{00000004-6FE6-46B3-B8C8-F1C6BCE58707}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1372,7 +1359,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1501,101 +1495,54 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9656-4E9E-A1B6-4360CDD8FD23}"/>
+              <c16:uniqueId val="{00000000-2D50-4BEC-909B-8017C7DB6100}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N_ones</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>sqrt</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$26:$D$35</c:f>
+              <c:f>Sheet1!$H$26:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>59.142135623730951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>62.320508075688778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>67.360679774997891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>69.494897427831773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>71.457513110645905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>73.284271247461902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$26:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,101 +1550,54 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9656-4E9E-A1B6-4360CDD8FD23}"/>
+              <c16:uniqueId val="{00000004-2D50-4BEC-909B-8017C7DB6100}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E[N_ones]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>LN</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$26:$D$35</c:f>
+              <c:f>Sheet1!$I$26:$I$35</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>64.472382603833282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>74.176443131672514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>79.852954645186813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>83.880503659511746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>87.004513377910683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>89.557015173026045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>91.715124690607666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>93.584564187350978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>95.233526686540358</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$26:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6.103515625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.20703125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.310546875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.4140625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.517578125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.62109375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42.724609375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48.828125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.931640625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>61.03515625</c:v>
+                  <c:v>96.708573905749915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,7 +1605,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9656-4E9E-A1B6-4360CDD8FD23}"/>
+              <c16:uniqueId val="{00000005-2D50-4BEC-909B-8017C7DB6100}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2429,16 +2329,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>499110</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>689610</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2463,60 +2363,26 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10172700" cy="6286500"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10172700" cy="6286500"/>
+    <xdr:ext cx="6652260" cy="3741420"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9640AEC0-FC0C-441A-B73F-E15188CE55C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2525,6 +2391,39 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6675120" cy="3924300"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4826EDEF-2184-488D-B96F-1C5261AFEE05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2734,15 +2633,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B3:H47"/>
+  <dimension ref="B3:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>16</v>
       </c>
@@ -2785,12 +2684,16 @@
         <f t="shared" ref="G4:G18" si="0">(0.5^B4)*D4*C4</f>
         <v>7.62939453125</v>
       </c>
-      <c r="H4">
-        <f>SQRT(D4)</f>
-        <v>22.360679774997898</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <f>SQRT(D4 - 500) + 130</f>
+        <v>130</v>
+      </c>
+      <c r="I4">
+        <f>16*LN(D4)</f>
+        <v>99.433729574755063</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>16</v>
       </c>
@@ -2810,12 +2713,16 @@
         <f t="shared" si="0"/>
         <v>15.2587890625</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H18" si="1">SQRT(D5)</f>
-        <v>31.622776601683793</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H35" si="1">SQRT(D5 - 500) + 130</f>
+        <v>152.36067977499789</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I35" si="2">16*LN(D5)</f>
+        <v>110.52408446371419</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>16</v>
       </c>
@@ -2835,12 +2742,16 @@
         <f t="shared" si="0"/>
         <v>22.88818359375</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>38.729833462074168</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>161.6227766016838</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>117.01152619344482</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>16</v>
       </c>
@@ -2860,12 +2771,16 @@
         <f t="shared" si="0"/>
         <v>30.517578125</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>44.721359549995796</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>168.72983346207417</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>121.61443935267332</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>16</v>
       </c>
@@ -2885,12 +2800,16 @@
         <f t="shared" si="0"/>
         <v>38.14697265625</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>174.72135954999578</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>125.18473617370067</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>16</v>
       </c>
@@ -2910,12 +2829,16 @@
         <f t="shared" si="0"/>
         <v>45.7763671875</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>54.772255750516614</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>128.10188108240393</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>16</v>
       </c>
@@ -2935,12 +2858,16 @@
         <f t="shared" si="0"/>
         <v>53.40576171875</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>59.16079783099616</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>184.77225575051662</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>130.56829195964008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>16</v>
       </c>
@@ -2960,12 +2887,16 @@
         <f t="shared" si="0"/>
         <v>61.03515625</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>63.245553203367585</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>189.16079783099616</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>132.70479424163244</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>16</v>
       </c>
@@ -2985,12 +2916,16 @@
         <f t="shared" si="0"/>
         <v>68.66455078125</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>67.082039324993687</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>193.24555320336759</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>134.58932281213458</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>16</v>
       </c>
@@ -3010,12 +2945,16 @@
         <f t="shared" si="0"/>
         <v>76.2939453125</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>70.710678118654755</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>197.08203932499367</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>136.27509106265981</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>16</v>
       </c>
@@ -3035,12 +2974,16 @@
         <f t="shared" si="0"/>
         <v>83.92333984375</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>74.16198487095663</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>200.71067811865476</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>137.80005393952899</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>16</v>
       </c>
@@ -3060,12 +3003,16 @@
         <f t="shared" si="0"/>
         <v>91.552734375</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>77.459666924148337</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>204.16198487095664</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>139.19223597136306</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>16</v>
       </c>
@@ -3085,12 +3032,16 @@
         <f t="shared" si="0"/>
         <v>99.18212890625</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>80.622577482985491</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>207.45966692414834</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>140.47291929413964</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>16</v>
       </c>
@@ -3110,12 +3061,16 @@
         <f t="shared" si="0"/>
         <v>106.8115234375</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <f t="shared" si="1"/>
-        <v>83.66600265340756</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>210.62257748298549</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>141.6586468485992</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -3135,12 +3090,16 @@
         <f t="shared" si="0"/>
         <v>122.0703125</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>89.442719099991592</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>216.60254037844385</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>143.79514913059157</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3159,8 +3118,9 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -3177,11 +3137,12 @@
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" ref="G20:G24" si="2">(0.5^B20)*D20*C20</f>
+        <f t="shared" ref="G20:G24" si="3">(0.5^B20)*D20*C20</f>
         <v>1.9073486328125</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -3198,11 +3159,12 @@
         <v>4</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.814697265625</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>18</v>
       </c>
@@ -3219,11 +3181,12 @@
         <v>5</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7220458984375</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>18</v>
       </c>
@@ -3240,11 +3203,12 @@
         <v>8</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.62939453125</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>18</v>
       </c>
@@ -3261,11 +3225,12 @@
         <v>8</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.444091796875</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3284,8 +3249,9 @@
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>14</v>
       </c>
@@ -3302,11 +3268,19 @@
         <v>6</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" ref="G26:G47" si="3">(0.5^B26)*D26*C26</f>
+        <f t="shared" ref="G26:G47" si="4">(0.5^B26)*D26*C26</f>
         <v>6.103515625</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="4">
+        <f>SQRT(D26 -100) + 45</f>
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <f>14 * LN(D26)</f>
+        <v>64.472382603833282</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>14</v>
       </c>
@@ -3323,11 +3297,19 @@
         <v>11</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.20703125</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="4">
+        <f t="shared" ref="H27:H35" si="5">SQRT(D27 -100) + 45</f>
+        <v>55</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I35" si="6">14 * LN(D27)</f>
+        <v>74.176443131672514</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>14</v>
       </c>
@@ -3344,11 +3326,19 @@
         <v>20</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.310546875</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="4">
+        <f t="shared" si="5"/>
+        <v>59.142135623730951</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>79.852954645186813</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>14</v>
       </c>
@@ -3365,11 +3355,19 @@
         <v>24</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.4140625</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="4">
+        <f t="shared" si="5"/>
+        <v>62.320508075688778</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>83.880503659511746</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>14</v>
       </c>
@@ -3386,11 +3384,19 @@
         <v>30</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.517578125</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="4">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>87.004513377910683</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>14</v>
       </c>
@@ -3407,11 +3413,19 @@
         <v>31</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="4">
+        <f t="shared" si="5"/>
+        <v>67.360679774997891</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>89.557015173026045</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>14</v>
       </c>
@@ -3428,11 +3442,19 @@
         <v>43</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.724609375</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="4">
+        <f t="shared" si="5"/>
+        <v>69.494897427831773</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>91.715124690607666</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>14</v>
       </c>
@@ -3449,11 +3471,19 @@
         <v>48</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.828125</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4">
+        <f t="shared" si="5"/>
+        <v>71.457513110645905</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>93.584564187350978</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>14</v>
       </c>
@@ -3470,11 +3500,19 @@
         <v>56</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.931640625</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4">
+        <f t="shared" si="5"/>
+        <v>73.284271247461902</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>95.233526686540358</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>14</v>
       </c>
@@ -3491,11 +3529,19 @@
         <v>60</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61.03515625</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="4">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>96.708573905749915</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3515,7 +3561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>16</v>
       </c>
@@ -3532,11 +3578,11 @@
         <v>11</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.20703125</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>16</v>
       </c>
@@ -3553,11 +3599,11 @@
         <v>28</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.4140625</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>16</v>
       </c>
@@ -3574,11 +3620,11 @@
         <v>43</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.828125</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>16</v>
       </c>
@@ -3595,11 +3641,11 @@
         <v>100</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.65625</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>16</v>
       </c>
@@ -3616,11 +3662,11 @@
         <v>177</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>195.3125</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>16</v>
       </c>
@@ -3637,11 +3683,11 @@
         <v>292</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>292.96875</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>16</v>
       </c>
@@ -3658,11 +3704,11 @@
         <v>349</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>390.625</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>16</v>
       </c>
@@ -3679,11 +3725,11 @@
         <v>448</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>488.28125</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>16</v>
       </c>
@@ -3700,11 +3746,11 @@
         <v>565</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>585.9375</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>16</v>
       </c>
@@ -3721,11 +3767,11 @@
         <v>630</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>683.59375</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>16</v>
       </c>
@@ -3742,7 +3788,7 @@
         <v>725</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>781.25</v>
       </c>
     </row>
@@ -3759,13 +3805,12 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>